--- a/ASSIGNMENT/EXCEL/ASSIGNMENT1..xlsx
+++ b/ASSIGNMENT/EXCEL/ASSIGNMENT1..xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/286368300bfeb46e/Documents/EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/286368300bfeb46e/Documents/github/jayant_data-sci._top/ASSIGNMENT/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84C098E0-5540-43EA-BF0A-B7AB8DED8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{84C098E0-5540-43EA-BF0A-B7AB8DED8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0FA34D-1382-483B-9644-4519DB23CD00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="266">
   <si>
     <t>SR.NO</t>
   </si>
@@ -824,7 +835,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,7 +1392,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1391,16 +1402,17 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,6 +1474,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,11 +1776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,10 +1797,12 @@
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -2183,25 +2201,25 @@
       <c r="M9" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2245,13 +2263,13 @@
       <c r="M10" s="3">
         <v>120000</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2616,7 +2634,7 @@
         <v>ACCOUNTING</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2772,7 +2790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2888,8 +2906,41 @@
       <c r="M23" s="3">
         <v>82000</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2929,8 +2980,51 @@
       <c r="M24" s="3">
         <v>79000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,B2:B51,0,1,1)</f>
+        <v>Bruce</v>
+      </c>
+      <c r="R24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,C2:C51,0,1,1)</f>
+        <v>Ernst</v>
+      </c>
+      <c r="S24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,D2:D51,0,1,1)</f>
+        <v>BERNST</v>
+      </c>
+      <c r="T24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,E2:E51,0,1,1)</f>
+        <v>590.423.4568</v>
+      </c>
+      <c r="U24" s="9" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,F2:F51,0,1,1)</f>
+        <v>9/13/2013</v>
+      </c>
+      <c r="V24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,G2:G51,0,1,1)</f>
+        <v>Programmer</v>
+      </c>
+      <c r="W24">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,H2:H51,0,1,1)</f>
+        <v>60000</v>
+      </c>
+      <c r="X24">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,I2:I51,0,1,1)</f>
+        <v>20</v>
+      </c>
+      <c r="Y24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,J2:J51,0,1,1)</f>
+        <v>Alexander</v>
+      </c>
+      <c r="Z24" t="str">
+        <f>_xlfn.XLOOKUP(P24,A2:A51,K2:K51,0,1,1)</f>
+        <v>SALES</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2969,7 +3063,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3008,7 +3102,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3047,7 +3141,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3086,7 +3180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3127,7 +3221,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3168,7 +3262,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3207,7 +3301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4010,11 +4104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4023,7 +4117,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4047,7 +4141,7 @@
       <c r="H1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>95</v>
       </c>
       <c r="M1" s="11" t="s">
@@ -4073,7 +4167,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -4081,7 +4175,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -4336,7 +4430,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$1:$A$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/ASSIGNMENT/EXCEL/ASSIGNMENT1..xlsx
+++ b/ASSIGNMENT/EXCEL/ASSIGNMENT1..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/286368300bfeb46e/Documents/github/jayant_data-sci._top/ASSIGNMENT/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{84C098E0-5540-43EA-BF0A-B7AB8DED8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0FA34D-1382-483B-9644-4519DB23CD00}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:40009_{84C098E0-5540-43EA-BF0A-B7AB8DED8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6353BD4F-1875-4EC6-82C8-14EDABC4BA87}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1476,10 +1476,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1779,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4108,7 +4104,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
